--- a/file/confirm/人事_1.1_重要业务结果/人事_1.1_对外数据要求检查.xlsx
+++ b/file/confirm/人事_1.1_重要业务结果/人事_1.1_对外数据要求检查.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P425"/>
+  <dimension ref="A1:L425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,10 +433,6 @@
     <col width="18" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="28" customWidth="1" min="12" max="12"/>
-    <col width="34" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
-    <col width="14" customWidth="1" min="15" max="15"/>
-    <col width="70" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -500,26 +496,6 @@
           <t>长度/值域</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>业务线确认</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>标准确认</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>标准修订状态</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>表关联/取值</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -563,16 +539,6 @@
       <c r="L2" t="n">
         <v>60</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -616,16 +582,6 @@
       <c r="L3" t="n">
         <v>60</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -669,16 +625,6 @@
       <c r="L4" t="n">
         <v>180</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -724,16 +670,6 @@
           <t>级别</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -789,16 +725,6 @@
           <t>奖励等级</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -852,16 +778,6 @@
       <c r="L7" t="n">
         <v>100</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -905,16 +821,6 @@
       <c r="L8" t="n">
         <v>8</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -935,21 +841,6 @@
       <c r="D9" t="n">
         <v>180</v>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -993,16 +884,6 @@
       <c r="L10" t="n">
         <v>60</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1046,16 +927,6 @@
       <c r="L11" t="n">
         <v>30</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1088,21 +959,6 @@
           <t>教职工号</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1146,16 +1002,6 @@
       <c r="L13" t="n">
         <v>60</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1199,16 +1045,6 @@
       <c r="L14" t="n">
         <v>60</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1261,16 +1097,6 @@
           <t>角色</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1314,16 +1140,6 @@
       <c r="L16" t="n">
         <v>30</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1367,16 +1183,6 @@
       <c r="L17" t="n">
         <v>60</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1420,16 +1226,6 @@
       <c r="L18" t="n">
         <v>60</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1473,16 +1269,6 @@
       <c r="L19" t="n">
         <v>60</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1536,16 +1322,6 @@
       <c r="L20" t="n">
         <v>60</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1601,16 +1377,6 @@
           <t>课程性质</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1631,21 +1397,6 @@
       <c r="D22" t="n">
         <v>10</v>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>删除</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1666,21 +1417,6 @@
       <c r="D23" t="n">
         <v>10</v>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>删除</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1701,21 +1437,6 @@
       <c r="D24" t="n">
         <v>180</v>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>需要</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>删除</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1756,16 +1477,6 @@
       <c r="L25" t="n">
         <v>10</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1796,21 +1507,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1831,21 +1527,6 @@
       <c r="D27" t="n">
         <v>90</v>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1863,21 +1544,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1895,21 +1561,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1922,21 +1573,6 @@
           <t>其他工作折和课时数</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1957,21 +1593,6 @@
       <c r="D31" t="n">
         <v>40</v>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>业务线提供视图</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1992,21 +1613,6 @@
       <c r="D32" t="n">
         <v>20</v>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>业务线提供视图</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2027,21 +1633,6 @@
       <c r="D33" t="n">
         <v>10</v>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>业务线提供视图</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2072,21 +1663,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>业务线提供视图</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2104,21 +1680,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>业务线提供视图</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2139,21 +1700,6 @@
       <c r="D36" t="n">
         <v>600</v>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>业务线提供视图</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2171,21 +1717,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>业务线提供视图</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2206,21 +1737,6 @@
       <c r="D38" t="n">
         <v>600</v>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>业务线提供视图</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2238,21 +1754,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>业务线提供视图</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2273,21 +1774,6 @@
       <c r="D40" t="n">
         <v>600</v>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>业务线提供视图</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2305,21 +1791,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>业务线提供视图</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2340,21 +1811,6 @@
       <c r="D42" t="n">
         <v>600</v>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>业务线提供视图</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2375,21 +1831,6 @@
       <c r="D43" t="n">
         <v>40</v>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>业务线提供视图</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2433,16 +1874,6 @@
       <c r="L44" t="n">
         <v>100</v>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2496,16 +1927,6 @@
       <c r="L45" t="n">
         <v>100</v>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2561,16 +1982,6 @@
           <t>级别</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2614,16 +2025,6 @@
       <c r="L47" t="n">
         <v>8</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2667,16 +2068,6 @@
       <c r="L48" t="n">
         <v>8</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2720,16 +2111,6 @@
       <c r="L49" t="n">
         <v>8</v>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2773,16 +2154,6 @@
       <c r="L50" t="n">
         <v>60</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2823,16 +2194,6 @@
       <c r="L51" t="n">
         <v>19</v>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2853,21 +2214,6 @@
       <c r="D52" t="n">
         <v>20</v>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2888,21 +2234,6 @@
       <c r="D53" t="n">
         <v>20</v>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2958,16 +2289,6 @@
           <t>项目执行状态</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2998,21 +2319,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3056,16 +2362,6 @@
       <c r="L56" t="n">
         <v>60</v>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3109,16 +2405,6 @@
       <c r="L57" t="n">
         <v>20</v>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3174,16 +2460,6 @@
           <t>角色</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3216,21 +2492,6 @@
           <t>参与人</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3271,16 +2532,6 @@
       <c r="L60" t="n">
         <v>10</v>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3324,16 +2575,6 @@
       <c r="L61" t="n">
         <v>60</v>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3377,16 +2618,6 @@
       <c r="L62" t="n">
         <v>60</v>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3430,16 +2661,6 @@
       <c r="L63" t="n">
         <v>60</v>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3470,16 +2691,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3507,21 +2718,6 @@
           <t>学号</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3552,21 +2748,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>业务系统自己维护</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3607,16 +2788,6 @@
           <t>担任指导角色</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3637,21 +2808,6 @@
       <c r="D68" t="n">
         <v>1800</v>
       </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3687,16 +2843,6 @@
       <c r="L69" t="n">
         <v>20</v>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3740,16 +2886,6 @@
       <c r="L70" t="n">
         <v>100</v>
       </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3795,16 +2931,6 @@
           <t>Text</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3848,16 +2974,6 @@
       <c r="L72" t="n">
         <v>100</v>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3901,16 +3017,6 @@
       <c r="L73" t="n">
         <v>8</v>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3966,16 +3072,6 @@
           <t>级别</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4031,16 +3127,6 @@
           <t>学生获奖类别</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4096,16 +3182,6 @@
           <t>奖励等级</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4149,16 +3225,6 @@
       <c r="L77" t="n">
         <v>100</v>
       </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4202,16 +3268,6 @@
       <c r="L78" t="n">
         <v>50</v>
       </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4255,16 +3311,6 @@
       <c r="L79" t="n">
         <v>60</v>
       </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4308,16 +3354,6 @@
       <c r="L80" t="n">
         <v>8</v>
       </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4368,16 +3404,6 @@
           <t>项目来源</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4421,16 +3447,6 @@
       <c r="L82" t="n">
         <v>60</v>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4471,16 +3487,6 @@
       <c r="L83" t="n">
         <v>19</v>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4521,16 +3527,6 @@
       <c r="L84" t="n">
         <v>19</v>
       </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4574,16 +3570,6 @@
       <c r="L85" t="n">
         <v>8</v>
       </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4639,16 +3625,6 @@
           <t>项目执行状态</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4704,16 +3680,6 @@
           <t>学科门类(科技)</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4769,16 +3735,6 @@
           <t>项目分类</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4822,16 +3778,6 @@
       <c r="L89" t="n">
         <v>100</v>
       </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4887,16 +3833,6 @@
           <t>级别</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4952,16 +3888,6 @@
           <t>项目类别</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4992,21 +3918,6 @@
           <t>校标</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>删除</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5050,21 +3961,6 @@
       <c r="L93" t="n">
         <v>60</v>
       </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>科研_科研人员参与项目记录.科研人员=科研_科研人员.科研人员编号</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="H94" t="inlineStr">
@@ -5090,21 +3986,6 @@
       <c r="L94" t="n">
         <v>60</v>
       </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>科研_科研项目.项目编码=科研_科研人员参与项目记录.科研项目</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5148,16 +4029,6 @@
       <c r="L95" t="n">
         <v>10</v>
       </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5175,26 +4046,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>从科研项目账记录统计</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5212,26 +4063,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>从科研项目账记录统计</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5275,16 +4106,6 @@
       <c r="L98" t="n">
         <v>60</v>
       </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5325,16 +4146,6 @@
           <t>角色</t>
         </is>
       </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5367,21 +4178,6 @@
           <t>科研人员</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5412,21 +4208,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>业务系统自己维护</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5447,16 +4228,6 @@
       <c r="D102" t="n">
         <v>50</v>
       </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5477,16 +4248,6 @@
       <c r="D103" t="n">
         <v>10</v>
       </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5532,16 +4293,6 @@
           <t>学位授予和人才培养学科目录</t>
         </is>
       </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5585,16 +4336,6 @@
       <c r="L105" t="n">
         <v>64</v>
       </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5638,16 +4379,6 @@
       <c r="L106" t="n">
         <v>8</v>
       </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5691,16 +4422,6 @@
       <c r="L107" t="n">
         <v>8</v>
       </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5744,16 +4465,6 @@
       <c r="L108" t="n">
         <v>100</v>
       </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5809,16 +4520,6 @@
           <t>项目分类</t>
         </is>
       </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5867,16 +4568,6 @@
       <c r="L110" t="n">
         <v>20</v>
       </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5920,16 +4611,6 @@
       <c r="L111" t="n">
         <v>100</v>
       </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5973,21 +4654,6 @@
       <c r="L112" t="n">
         <v>60</v>
       </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>关联：科研_科研人员:校内人员编码</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6043,16 +4709,6 @@
           <t>学科门类(科技)</t>
         </is>
       </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6096,16 +4752,6 @@
       <c r="L114" t="n">
         <v>100</v>
       </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6156,16 +4802,6 @@
           <t>专利类型</t>
         </is>
       </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6209,16 +4845,6 @@
       <c r="L116" t="n">
         <v>100</v>
       </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6254,16 +4880,6 @@
           <t>专利授权公告日期</t>
         </is>
       </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6284,16 +4900,6 @@
       <c r="D118" t="n">
         <v>10</v>
       </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6337,16 +4943,6 @@
       <c r="L119" t="n">
         <v>100</v>
       </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6377,21 +4973,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>业务系统自己维护</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6412,21 +4993,6 @@
       <c r="D121" t="n">
         <v>10</v>
       </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>需要，可计算</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6444,21 +5010,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6514,16 +5065,6 @@
           <t>学位授予和人才培养学科目录</t>
         </is>
       </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6574,16 +5115,6 @@
           <t>角色</t>
         </is>
       </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6632,16 +5163,6 @@
       <c r="L125" t="n">
         <v>5</v>
       </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6685,16 +5206,6 @@
       <c r="L126" t="n">
         <v>60</v>
       </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6750,16 +5261,6 @@
           <t>学科门类(科技)</t>
         </is>
       </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6803,16 +5304,6 @@
       <c r="L128" t="n">
         <v>100</v>
       </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6856,16 +5347,6 @@
       <c r="L129" t="n">
         <v>100</v>
       </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6921,16 +5402,6 @@
           <t>级别</t>
         </is>
       </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6984,16 +5455,6 @@
       <c r="L131" t="n">
         <v>60</v>
       </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7037,16 +5498,6 @@
       <c r="L132" t="n">
         <v>8</v>
       </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7090,16 +5541,6 @@
       <c r="L133" t="n">
         <v>100</v>
       </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7130,21 +5571,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>业务系统自己维护</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7188,21 +5614,6 @@
       <c r="L135" t="n">
         <v>60</v>
       </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t>科研_成果获奖完成人记录.科研人员=科研_科研人员.科研人员编号</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="H136" t="inlineStr">
@@ -7228,21 +5639,6 @@
       <c r="L136" t="n">
         <v>60</v>
       </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>科研_科研成果_获奖信息.记录ID=科研_成果获奖完成人记录.奖项记录ID</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7291,16 +5687,6 @@
       <c r="L137" t="n">
         <v>10</v>
       </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7333,21 +5719,6 @@
           <t>科研人员</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7391,16 +5762,6 @@
       <c r="L139" t="n">
         <v>100</v>
       </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7451,16 +5812,6 @@
           <t>成果获奖类别</t>
         </is>
       </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O140" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7481,21 +5832,6 @@
       <c r="D141" t="n">
         <v>300</v>
       </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7526,21 +5862,6 @@
           <t>国标</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>业务系统自己维护</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="H143" t="inlineStr">
@@ -7558,11 +5879,6 @@
           <t>科研人员编号</t>
         </is>
       </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="H144" t="inlineStr">
@@ -7580,11 +5896,6 @@
           <t>校内人员编码</t>
         </is>
       </c>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7605,21 +5916,6 @@
       <c r="D145" t="n">
         <v>40</v>
       </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7663,21 +5959,6 @@
       <c r="L146" t="n">
         <v>60</v>
       </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O146" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P146" t="inlineStr">
-        <is>
-          <t>科研_艺术作品_作者信息.艺术作品作者=科研_科研人员.科研人员编码</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="H147" t="inlineStr">
@@ -7703,21 +5984,6 @@
       <c r="L147" t="n">
         <v>60</v>
       </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>科研_艺术作品_作者信息.艺术作品=科研_艺术作品.作品编码</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7768,16 +6034,6 @@
           <t>论著类别</t>
         </is>
       </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7808,21 +6064,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>业务系统自己维护</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7866,16 +6107,6 @@
       <c r="L150" t="n">
         <v>100</v>
       </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7926,16 +6157,6 @@
           <t>角色</t>
         </is>
       </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7979,16 +6200,6 @@
       <c r="L152" t="n">
         <v>8</v>
       </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8032,16 +6243,6 @@
       <c r="L153" t="n">
         <v>100</v>
       </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8085,16 +6286,6 @@
       <c r="L154" t="n">
         <v>200</v>
       </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O154" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8138,16 +6329,6 @@
       <c r="L155" t="n">
         <v>60</v>
       </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>增加表</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8191,16 +6372,6 @@
       <c r="L156" t="n">
         <v>60</v>
       </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O156" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8244,16 +6415,6 @@
       <c r="L157" t="n">
         <v>100</v>
       </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>增加表</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8284,21 +6445,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>业务系统自己维护</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8342,16 +6488,6 @@
       <c r="L159" t="n">
         <v>60</v>
       </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>增加表</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8400,21 +6536,6 @@
       <c r="L160" t="n">
         <v>10</v>
       </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O160" t="inlineStr">
-        <is>
-          <t>增加表</t>
-        </is>
-      </c>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>科研_药证_作者信息.药证=科研_国家医药证书.药证编码</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8455,16 +6576,6 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>增加表</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8505,16 +6616,6 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O162" t="inlineStr">
-        <is>
-          <t>增加表</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8535,21 +6636,6 @@
       <c r="D163" t="n">
         <v>40</v>
       </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O163" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8570,21 +6656,6 @@
       <c r="D164" t="n">
         <v>40</v>
       </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O164" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8605,21 +6676,6 @@
       <c r="D165" t="n">
         <v>20</v>
       </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8645,21 +6701,6 @@
           <t>T_RS_ZXBZ_TDLB</t>
         </is>
       </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O166" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8690,21 +6731,6 @@
           <t>校标</t>
         </is>
       </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8725,21 +6751,6 @@
       <c r="D168" t="n">
         <v>300</v>
       </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O168" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8770,21 +6781,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O169" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8797,21 +6793,6 @@
           <t>排序</t>
         </is>
       </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O170" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8842,21 +6823,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O171" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8900,16 +6866,6 @@
       <c r="L172" t="n">
         <v>60</v>
       </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8965,16 +6921,6 @@
           <t>学科门类(科技)</t>
         </is>
       </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9018,16 +6964,6 @@
       <c r="L174" t="n">
         <v>100</v>
       </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9076,16 +7012,6 @@
       <c r="L175" t="n">
         <v>100</v>
       </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9129,16 +7055,6 @@
       <c r="L176" t="n">
         <v>8</v>
       </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9159,21 +7075,6 @@
       <c r="D177" t="n">
         <v>6</v>
       </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>业务系统自己维护</t>
-        </is>
-      </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9217,21 +7118,6 @@
       <c r="L178" t="n">
         <v>60</v>
       </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O178" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P178" t="inlineStr">
-        <is>
-          <t>科研_鉴定成果_作者信息.鉴定成果作者=科研_科研人员.科研人员编码</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="H179" t="inlineStr">
@@ -9257,21 +7143,6 @@
       <c r="L179" t="n">
         <v>60</v>
       </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O179" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P179" t="inlineStr">
-        <is>
-          <t>科研_鉴定成果_作者信息.鉴定成果=科研_鉴定成果.成果编码</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9315,21 +7186,6 @@
       <c r="L180" t="n">
         <v>20</v>
       </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O180" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P180" t="inlineStr">
-        <is>
-          <t>科研_鉴定成果_作者信息.鉴定成果=科研_鉴定成果.成果编码</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9347,21 +7203,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M181" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O181" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9417,16 +7258,6 @@
           <t>成果级别</t>
         </is>
       </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O182" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9470,16 +7301,6 @@
       <c r="L183" t="n">
         <v>60</v>
       </c>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O183" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9535,16 +7356,6 @@
           <t>学科门类(科技)</t>
         </is>
       </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9588,16 +7399,6 @@
       <c r="L185" t="n">
         <v>120</v>
       </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9648,16 +7449,6 @@
           <t>论著类别</t>
         </is>
       </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9701,16 +7492,6 @@
       <c r="L187" t="n">
         <v>100</v>
       </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9766,16 +7547,6 @@
           <t>出版社级别</t>
         </is>
       </c>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9819,16 +7590,6 @@
       <c r="L189" t="n">
         <v>8</v>
       </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9872,16 +7633,6 @@
       <c r="L190" t="n">
         <v>100</v>
       </c>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O190" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9922,16 +7673,6 @@
       <c r="L191" t="n">
         <v>10</v>
       </c>
-      <c r="N191" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O191" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -9987,16 +7728,6 @@
           <t>语种</t>
         </is>
       </c>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O192" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10017,21 +7748,6 @@
       <c r="D193" t="n">
         <v>10</v>
       </c>
-      <c r="M193" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O193" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10075,21 +7791,6 @@
       <c r="L194" t="n">
         <v>60</v>
       </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O194" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P194" t="inlineStr">
-        <is>
-          <t>科研_著作_作者信息.作者=科研_科研人员.科研人员编码</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="H195" t="inlineStr">
@@ -10115,21 +7816,6 @@
       <c r="L195" t="n">
         <v>60</v>
       </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O195" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P195" t="inlineStr">
-        <is>
-          <t>科研_著作_作者.著作编码=科研_著作.著作编码</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10150,21 +7836,6 @@
       <c r="D196" t="n">
         <v>10</v>
       </c>
-      <c r="M196" t="inlineStr">
-        <is>
-          <t>业务系统自己维护</t>
-        </is>
-      </c>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O196" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10182,21 +7853,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M197" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O197" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10227,21 +7883,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>业务系统自己维护</t>
-        </is>
-      </c>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O198" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10262,21 +7903,6 @@
       <c r="D199" t="n">
         <v>50</v>
       </c>
-      <c r="M199" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O199" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10325,21 +7951,6 @@
       <c r="L200" t="n">
         <v>20</v>
       </c>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O200" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P200" t="inlineStr">
-        <is>
-          <t>科研_著作_作者信息.作者=科研_科研人员.科研人员编码</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10360,21 +7971,6 @@
       <c r="D201" t="n">
         <v>10</v>
       </c>
-      <c r="M201" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O201" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10430,16 +8026,6 @@
           <t>学位授予和人才培养学科目录</t>
         </is>
       </c>
-      <c r="N202" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10483,16 +8069,6 @@
       <c r="L203" t="n">
         <v>200</v>
       </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -10528,21 +8104,6 @@
       <c r="L204" t="n">
         <v>10</v>
       </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O204" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P204" t="inlineStr">
-        <is>
-          <t>科研_著作_作者信息.作者=科研_科研人员.科研人员编码</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -10593,21 +8154,6 @@
           <t>角色</t>
         </is>
       </c>
-      <c r="N205" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O205" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P205" t="inlineStr">
-        <is>
-          <t>科研_著作_作者信息.著作编码=科研_著作.著作编码</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -10651,16 +8197,6 @@
       <c r="L206" t="n">
         <v>60</v>
       </c>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O206" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -10716,16 +8252,6 @@
           <t>学科门类(科技)</t>
         </is>
       </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O207" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -10769,16 +8295,6 @@
       <c r="L208" t="n">
         <v>100</v>
       </c>
-      <c r="N208" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -10822,16 +8338,6 @@
       <c r="L209" t="n">
         <v>8</v>
       </c>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O209" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -10875,16 +8381,6 @@
       <c r="L210" t="n">
         <v>8</v>
       </c>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O210" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -10928,16 +8424,6 @@
       <c r="L211" t="n">
         <v>60</v>
       </c>
-      <c r="N211" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O211" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -10981,16 +8467,6 @@
       <c r="L212" t="n">
         <v>60</v>
       </c>
-      <c r="N212" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O212" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11034,11 +8510,6 @@
       <c r="L213" t="n">
         <v>60</v>
       </c>
-      <c r="O213" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11059,21 +8530,6 @@
       <c r="D214" t="n">
         <v>6</v>
       </c>
-      <c r="M214" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N214" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O214" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -11117,21 +8573,6 @@
       <c r="L215" t="n">
         <v>60</v>
       </c>
-      <c r="N215" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O215" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P215" t="inlineStr">
-        <is>
-          <t>科研_软著_参与人信息.软著参与人=科研_科研人员.科研人员编码</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="H216" t="inlineStr">
@@ -11157,21 +8598,6 @@
       <c r="L216" t="n">
         <v>100</v>
       </c>
-      <c r="N216" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O216" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
-      <c r="P216" t="inlineStr">
-        <is>
-          <t>科研_软著_参与人信息.软件著作权=科研_计算机软件著作权.软件著作权编码</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -11215,16 +8641,6 @@
       <c r="L217" t="n">
         <v>5</v>
       </c>
-      <c r="N217" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O217" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -11257,21 +8673,6 @@
           <t>软著参与人</t>
         </is>
       </c>
-      <c r="M218" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N218" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O218" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -11322,16 +8723,6 @@
           <t>角色</t>
         </is>
       </c>
-      <c r="N219" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O219" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -11387,16 +8778,6 @@
           <t>学位授予和人才培养学科目录</t>
         </is>
       </c>
-      <c r="N220" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O220" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -11440,16 +8821,6 @@
       <c r="L221" t="n">
         <v>60</v>
       </c>
-      <c r="N221" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O221" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -11505,16 +8876,6 @@
           <t>学科门类(科技)</t>
         </is>
       </c>
-      <c r="N222" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O222" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -11558,16 +8919,6 @@
       <c r="L223" t="n">
         <v>120</v>
       </c>
-      <c r="N223" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O223" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -11588,21 +8939,6 @@
       <c r="D224" t="n">
         <v>180</v>
       </c>
-      <c r="M224" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N224" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O224" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -11653,16 +8989,6 @@
           <t>项目来源</t>
         </is>
       </c>
-      <c r="N225" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O225" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -11706,16 +9032,6 @@
       <c r="L226" t="n">
         <v>8</v>
       </c>
-      <c r="N226" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O226" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -11756,16 +9072,6 @@
       <c r="L227" t="n">
         <v>10</v>
       </c>
-      <c r="N227" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O227" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -11809,16 +9115,6 @@
       <c r="L228" t="n">
         <v>200</v>
       </c>
-      <c r="N228" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O228" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -11874,16 +9170,6 @@
           <t>刊物级别</t>
         </is>
       </c>
-      <c r="N229" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O229" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -11927,16 +9213,6 @@
       <c r="L230" t="n">
         <v>100</v>
       </c>
-      <c r="N230" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O230" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -11980,21 +9256,6 @@
       <c r="L231" t="n">
         <v>10</v>
       </c>
-      <c r="N231" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O231" t="inlineStr">
-        <is>
-          <t>增加表</t>
-        </is>
-      </c>
-      <c r="P231" t="inlineStr">
-        <is>
-          <t>科研_论文_收录信息.论文=科研_论文.论文编码</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12038,21 +9299,6 @@
       <c r="L232" t="n">
         <v>10</v>
       </c>
-      <c r="N232" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O232" t="inlineStr">
-        <is>
-          <t>增加表</t>
-        </is>
-      </c>
-      <c r="P232" t="inlineStr">
-        <is>
-          <t>科研_论文_收录信息.论文=科研_论文.论文编码</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -12096,16 +9342,6 @@
       <c r="L233" t="n">
         <v>20</v>
       </c>
-      <c r="N233" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O233" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -12149,16 +9385,6 @@
       <c r="L234" t="n">
         <v>100</v>
       </c>
-      <c r="N234" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O234" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -12202,16 +9428,6 @@
       <c r="L235" t="n">
         <v>200</v>
       </c>
-      <c r="N235" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O235" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -12255,16 +9471,6 @@
       <c r="L236" t="n">
         <v>100</v>
       </c>
-      <c r="N236" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O236" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -12320,16 +9526,6 @@
           <t>学术会议等级</t>
         </is>
       </c>
-      <c r="N237" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O237" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -12350,21 +9546,6 @@
       <c r="D238" t="n">
         <v>10</v>
       </c>
-      <c r="M238" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N238" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O238" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -12385,21 +9566,6 @@
       <c r="D239" t="n">
         <v>10</v>
       </c>
-      <c r="M239" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N239" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O239" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -12420,21 +9586,6 @@
       <c r="D240" t="n">
         <v>100</v>
       </c>
-      <c r="M240" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N240" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O240" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -12478,21 +9629,6 @@
       <c r="L241" t="n">
         <v>60</v>
       </c>
-      <c r="N241" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O241" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P241" t="inlineStr">
-        <is>
-          <t>科研_论文_作者信息.论文作者=科研_科研人员.科研人员编码</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="H242" t="inlineStr">
@@ -12518,21 +9654,6 @@
       <c r="L242" t="n">
         <v>60</v>
       </c>
-      <c r="N242" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O242" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P242" t="inlineStr">
-        <is>
-          <t>科研_论文_作者信息.论文=科研_论文.论文编码</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -12581,16 +9702,6 @@
       <c r="L243" t="n">
         <v>20</v>
       </c>
-      <c r="N243" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O243" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -12646,16 +9757,6 @@
           <t>是否标志</t>
         </is>
       </c>
-      <c r="N244" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O244" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -12676,21 +9777,6 @@
       <c r="D245" t="n">
         <v>100</v>
       </c>
-      <c r="M245" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N245" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O245" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -12746,16 +9832,6 @@
           <t>活动类型</t>
         </is>
       </c>
-      <c r="N246" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O246" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -12773,21 +9849,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M247" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N247" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O247" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -12808,16 +9869,6 @@
       <c r="D248" t="n">
         <v>40</v>
       </c>
-      <c r="N248" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O248" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -12848,16 +9899,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="N249" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O249" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -12878,16 +9919,6 @@
       <c r="D250" t="n">
         <v>50</v>
       </c>
-      <c r="N250" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O250" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -12913,16 +9944,6 @@
           <t>T_ZXBZ_BRPM</t>
         </is>
       </c>
-      <c r="N251" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O251" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -12953,16 +9974,6 @@
           <t>校标</t>
         </is>
       </c>
-      <c r="N252" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O252" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -12993,16 +10004,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="N253" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O253" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -13023,16 +10024,6 @@
       <c r="D254" t="n">
         <v>120</v>
       </c>
-      <c r="N254" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O254" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -13053,16 +10044,6 @@
       <c r="D255" t="n">
         <v>120</v>
       </c>
-      <c r="N255" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O255" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -13083,16 +10064,6 @@
       <c r="D256" t="n">
         <v>120</v>
       </c>
-      <c r="N256" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O256" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -13113,16 +10084,6 @@
       <c r="D257" t="n">
         <v>120</v>
       </c>
-      <c r="N257" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O257" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -13153,16 +10114,6 @@
           <t>部标</t>
         </is>
       </c>
-      <c r="N258" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O258" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -13188,16 +10139,6 @@
           <t>T_RS_ZXBZ_LWZBRJS</t>
         </is>
       </c>
-      <c r="N259" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O259" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -13218,16 +10159,6 @@
       <c r="D260" t="n">
         <v>480</v>
       </c>
-      <c r="N260" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O260" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -13248,16 +10179,6 @@
       <c r="D261" t="n">
         <v>10</v>
       </c>
-      <c r="N261" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O261" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -13288,16 +10209,6 @@
           <t>校标</t>
         </is>
       </c>
-      <c r="N262" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O262" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -13341,16 +10252,6 @@
       <c r="L263" t="n">
         <v>60</v>
       </c>
-      <c r="N263" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O263" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -13406,16 +10307,6 @@
           <t>学科门类(科技)</t>
         </is>
       </c>
-      <c r="N264" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O264" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -13459,16 +10350,6 @@
       <c r="L265" t="n">
         <v>100</v>
       </c>
-      <c r="N265" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O265" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -13524,16 +10405,6 @@
           <t>级别</t>
         </is>
       </c>
-      <c r="N266" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O266" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -13584,16 +10455,6 @@
           <t>项目来源</t>
         </is>
       </c>
-      <c r="N267" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O267" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -13637,16 +10498,6 @@
       <c r="L268" t="n">
         <v>8</v>
       </c>
-      <c r="N268" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O268" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -13687,16 +10538,6 @@
       <c r="L269" t="n">
         <v>10</v>
       </c>
-      <c r="N269" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O269" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -13740,21 +10581,6 @@
       <c r="L270" t="n">
         <v>60</v>
       </c>
-      <c r="N270" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O270" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P270" t="inlineStr">
-        <is>
-          <t>科研_研究报告_作者信息.研究报告作者=科研_科研人员.科研人员编码</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="H271" t="inlineStr">
@@ -13780,21 +10606,6 @@
       <c r="L271" t="n">
         <v>60</v>
       </c>
-      <c r="N271" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O271" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P271" t="inlineStr">
-        <is>
-          <t>科研_研究报告_作者信息.研究报告=科研_研究报告.研究报告编码</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -13815,16 +10626,6 @@
       <c r="D272" t="n">
         <v>6</v>
       </c>
-      <c r="N272" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O272" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -13855,16 +10656,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="N273" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O273" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -13897,21 +10688,6 @@
           <t>研究报告作者</t>
         </is>
       </c>
-      <c r="M274" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N274" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O274" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -13932,16 +10708,6 @@
       <c r="D275" t="n">
         <v>480</v>
       </c>
-      <c r="N275" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O275" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -13990,16 +10756,6 @@
       <c r="L276" t="n">
         <v>20</v>
       </c>
-      <c r="N276" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O276" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -14043,16 +10799,6 @@
       <c r="L277" t="n">
         <v>100</v>
       </c>
-      <c r="N277" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O277" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -14083,16 +10829,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="N278" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O278" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -14136,16 +10872,6 @@
       <c r="L279" t="n">
         <v>60</v>
       </c>
-      <c r="N279" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O279" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -14201,16 +10927,6 @@
           <t>学科门类(科技)</t>
         </is>
       </c>
-      <c r="N280" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O280" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -14254,16 +10970,6 @@
       <c r="L281" t="n">
         <v>100</v>
       </c>
-      <c r="N281" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O281" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -14319,16 +11025,6 @@
           <t>标准级别</t>
         </is>
       </c>
-      <c r="N282" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O282" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -14359,16 +11055,6 @@
           <t>校标</t>
         </is>
       </c>
-      <c r="N283" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O283" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -14394,16 +11080,6 @@
           <t>T_ZXBZ_KYPT</t>
         </is>
       </c>
-      <c r="N284" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O284" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -14447,16 +11123,6 @@
       <c r="L285" t="n">
         <v>100</v>
       </c>
-      <c r="N285" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O285" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -14500,16 +11166,6 @@
       <c r="L286" t="n">
         <v>8</v>
       </c>
-      <c r="N286" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O286" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -14560,16 +11216,6 @@
           <t>学位授予和人才培养学科目录</t>
         </is>
       </c>
-      <c r="N287" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O287" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -14595,16 +11241,6 @@
           <t>V_ZXBZ_XWSYHRCPYXKML3</t>
         </is>
       </c>
-      <c r="N288" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O288" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -14648,16 +11284,6 @@
       <c r="L289" t="n">
         <v>60</v>
       </c>
-      <c r="N289" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O289" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -14713,16 +11339,6 @@
           <t>角色</t>
         </is>
       </c>
-      <c r="N290" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O290" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -14743,16 +11359,6 @@
       <c r="D291" t="n">
         <v>10</v>
       </c>
-      <c r="N291" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O291" t="inlineStr">
-        <is>
-          <t>暂不提供</t>
-        </is>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -14801,16 +11407,6 @@
       <c r="L292" t="n">
         <v>20</v>
       </c>
-      <c r="N292" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O292" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -14828,21 +11424,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M293" t="inlineStr">
-        <is>
-          <t>从明细表计算</t>
-        </is>
-      </c>
-      <c r="N293" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O293" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -14863,21 +11444,6 @@
       <c r="D294" t="n">
         <v>300</v>
       </c>
-      <c r="M294" t="inlineStr">
-        <is>
-          <t>从成员表获取</t>
-        </is>
-      </c>
-      <c r="N294" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O294" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -14898,21 +11464,6 @@
       <c r="D295" t="n">
         <v>180</v>
       </c>
-      <c r="M295" t="inlineStr">
-        <is>
-          <t>删除字段要求</t>
-        </is>
-      </c>
-      <c r="N295" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O295" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -14956,21 +11507,6 @@
       <c r="L296" t="n">
         <v>60</v>
       </c>
-      <c r="N296" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O296" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P296" t="inlineStr">
-        <is>
-          <t>科研_标准_起草人信息.标准起草人=科研_科研人员.科研人员编码</t>
-        </is>
-      </c>
     </row>
     <row r="297">
       <c r="H297" t="inlineStr">
@@ -14996,21 +11532,6 @@
       <c r="L297" t="n">
         <v>60</v>
       </c>
-      <c r="N297" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O297" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
-      <c r="P297" t="inlineStr">
-        <is>
-          <t>科研_标准_起草人信息.标准=科研_标准.标准编码</t>
-        </is>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -15054,16 +11575,6 @@
       <c r="L298" t="n">
         <v>60</v>
       </c>
-      <c r="N298" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O298" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -15094,16 +11605,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="N299" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O299" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -15154,16 +11655,6 @@
           <t>角色</t>
         </is>
       </c>
-      <c r="N300" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O300" t="inlineStr">
-        <is>
-          <t>增加字段</t>
-        </is>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -15184,21 +11675,6 @@
       <c r="D301" t="n">
         <v>40</v>
       </c>
-      <c r="M301" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N301" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O301" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -15254,21 +11730,6 @@
           <t>学科门类(科技)</t>
         </is>
       </c>
-      <c r="M302" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N302" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O302" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -15289,21 +11750,6 @@
       <c r="D303" t="n">
         <v>180</v>
       </c>
-      <c r="M303" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N303" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O303" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -15334,21 +11780,6 @@
           <t>校标</t>
         </is>
       </c>
-      <c r="M304" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N304" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O304" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -15374,21 +11805,6 @@
           <t>T_ZXBZ_KYPT</t>
         </is>
       </c>
-      <c r="M305" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N305" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O305" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -15409,21 +11825,6 @@
       <c r="D306" t="n">
         <v>10</v>
       </c>
-      <c r="M306" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N306" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O306" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -15444,21 +11845,6 @@
       <c r="D307" t="n">
         <v>180</v>
       </c>
-      <c r="M307" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N307" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O307" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -15479,21 +11865,6 @@
       <c r="D308" t="n">
         <v>60</v>
       </c>
-      <c r="M308" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N308" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O308" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -15514,21 +11885,6 @@
       <c r="D309" t="n">
         <v>10</v>
       </c>
-      <c r="M309" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N309" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O309" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -15549,21 +11905,6 @@
       <c r="D310" t="n">
         <v>60</v>
       </c>
-      <c r="M310" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N310" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O310" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -15594,21 +11935,6 @@
           <t>校标</t>
         </is>
       </c>
-      <c r="M311" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N311" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O311" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -15629,21 +11955,6 @@
       <c r="D312" t="n">
         <v>180</v>
       </c>
-      <c r="M312" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N312" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O312" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -15669,21 +11980,6 @@
           <t>V_ZXBZ_XWSYHRCPYXKML2</t>
         </is>
       </c>
-      <c r="M313" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N313" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O313" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -15709,21 +12005,6 @@
           <t>V_ZXBZ_XWSYHRCPYXKML3</t>
         </is>
       </c>
-      <c r="M314" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N314" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O314" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -15744,21 +12025,6 @@
       <c r="D315" t="n">
         <v>90</v>
       </c>
-      <c r="M315" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N315" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O315" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -15779,21 +12045,6 @@
       <c r="D316" t="n">
         <v>30</v>
       </c>
-      <c r="M316" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N316" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O316" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -15814,21 +12065,6 @@
       <c r="D317" t="n">
         <v>40</v>
       </c>
-      <c r="M317" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N317" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O317" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -15846,21 +12082,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M318" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N318" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O318" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -15881,21 +12102,6 @@
       <c r="D319" t="n">
         <v>300</v>
       </c>
-      <c r="M319" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N319" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O319" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -15916,21 +12122,6 @@
       <c r="D320" t="n">
         <v>600</v>
       </c>
-      <c r="M320" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N320" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O320" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -15961,21 +12152,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="M321" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N321" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O321" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -15996,21 +12172,6 @@
       <c r="D322" t="n">
         <v>10</v>
       </c>
-      <c r="M322" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N322" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O322" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -16031,21 +12192,6 @@
       <c r="D323" t="n">
         <v>180</v>
       </c>
-      <c r="M323" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N323" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O323" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -16066,21 +12212,6 @@
       <c r="D324" t="n">
         <v>10</v>
       </c>
-      <c r="M324" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N324" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O324" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -16101,21 +12232,6 @@
       <c r="D325" t="n">
         <v>60</v>
       </c>
-      <c r="M325" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N325" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O325" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -16136,21 +12252,6 @@
       <c r="D326" t="n">
         <v>20</v>
       </c>
-      <c r="M326" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N326" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O326" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -16194,21 +12295,6 @@
       <c r="L327" t="n">
         <v>60</v>
       </c>
-      <c r="M327" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N327" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O327" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -16264,21 +12350,6 @@
           <t>学科门类(科技)</t>
         </is>
       </c>
-      <c r="M328" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N328" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O328" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -16322,21 +12393,6 @@
       <c r="L329" t="n">
         <v>100</v>
       </c>
-      <c r="M329" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N329" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O329" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -16367,21 +12423,6 @@
           <t>校标</t>
         </is>
       </c>
-      <c r="M330" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N330" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O330" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -16407,21 +12448,6 @@
           <t>T_ZXBZ_KYPT</t>
         </is>
       </c>
-      <c r="M331" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N331" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O331" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -16452,21 +12478,6 @@
           <t>校标</t>
         </is>
       </c>
-      <c r="M332" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N332" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O332" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -16487,21 +12498,6 @@
       <c r="D333" t="n">
         <v>180</v>
       </c>
-      <c r="M333" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N333" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O333" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -16522,21 +12518,6 @@
       <c r="D334" t="n">
         <v>300</v>
       </c>
-      <c r="M334" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N334" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O334" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -16557,21 +12538,6 @@
       <c r="D335" t="n">
         <v>90</v>
       </c>
-      <c r="M335" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N335" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O335" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -16592,21 +12558,6 @@
       <c r="D336" t="n">
         <v>180</v>
       </c>
-      <c r="M336" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N336" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O336" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -16627,21 +12578,6 @@
       <c r="D337" t="n">
         <v>10</v>
       </c>
-      <c r="M337" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N337" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O337" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -16672,21 +12608,6 @@
           <t>校标</t>
         </is>
       </c>
-      <c r="M338" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N338" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O338" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -16707,21 +12628,6 @@
       <c r="D339" t="n">
         <v>180</v>
       </c>
-      <c r="M339" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N339" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O339" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -16752,21 +12658,6 @@
           <t>校标</t>
         </is>
       </c>
-      <c r="M340" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N340" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O340" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -16792,21 +12683,6 @@
           <t>V_ZXBZ_XWSYHRCPYXKML2</t>
         </is>
       </c>
-      <c r="M341" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N341" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O341" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -16832,21 +12708,6 @@
           <t>V_ZXBZ_XWSYHRCPYXKML3</t>
         </is>
       </c>
-      <c r="M342" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N342" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O342" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -16867,21 +12728,6 @@
       <c r="D343" t="n">
         <v>90</v>
       </c>
-      <c r="M343" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N343" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O343" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -16902,21 +12748,6 @@
       <c r="D344" t="n">
         <v>30</v>
       </c>
-      <c r="M344" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N344" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O344" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -16937,21 +12768,6 @@
       <c r="D345" t="n">
         <v>40</v>
       </c>
-      <c r="M345" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N345" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O345" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -16972,21 +12788,6 @@
       <c r="D346" t="n">
         <v>180</v>
       </c>
-      <c r="M346" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N346" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O346" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -17007,21 +12808,6 @@
       <c r="D347" t="n">
         <v>3000</v>
       </c>
-      <c r="M347" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N347" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O347" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -17039,21 +12825,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M348" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N348" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O348" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -17074,21 +12845,6 @@
       <c r="D349" t="n">
         <v>300</v>
       </c>
-      <c r="M349" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N349" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O349" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -17144,21 +12900,6 @@
           <t>角色</t>
         </is>
       </c>
-      <c r="M350" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N350" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O350" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -17179,21 +12920,6 @@
       <c r="D351" t="n">
         <v>10</v>
       </c>
-      <c r="M351" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N351" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O351" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -17214,21 +12940,6 @@
       <c r="D352" t="n">
         <v>10</v>
       </c>
-      <c r="M352" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N352" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O352" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -17272,21 +12983,6 @@
       <c r="L353" t="n">
         <v>60</v>
       </c>
-      <c r="M353" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N353" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="O353" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -17307,21 +13003,6 @@
       <c r="D354" t="n">
         <v>40</v>
       </c>
-      <c r="M354" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N354" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O354" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -17342,21 +13023,6 @@
       <c r="D355" t="n">
         <v>20</v>
       </c>
-      <c r="M355" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N355" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O355" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -17377,21 +13043,6 @@
       <c r="D356" t="n">
         <v>40</v>
       </c>
-      <c r="M356" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N356" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O356" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -17412,21 +13063,6 @@
       <c r="D357" t="n">
         <v>180</v>
       </c>
-      <c r="M357" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N357" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O357" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -17447,21 +13083,6 @@
       <c r="D358" t="n">
         <v>90</v>
       </c>
-      <c r="M358" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N358" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O358" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -17482,21 +13103,6 @@
       <c r="D359" t="n">
         <v>40</v>
       </c>
-      <c r="M359" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N359" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O359" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -17517,21 +13123,6 @@
       <c r="D360" t="n">
         <v>20</v>
       </c>
-      <c r="M360" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N360" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O360" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -17549,21 +13140,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M361" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N361" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O361" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -17584,21 +13160,6 @@
       <c r="D362" t="n">
         <v>10</v>
       </c>
-      <c r="M362" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N362" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O362" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -17619,21 +13180,6 @@
       <c r="D363" t="n">
         <v>60</v>
       </c>
-      <c r="M363" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N363" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O363" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -17654,21 +13200,6 @@
       <c r="D364" t="n">
         <v>40</v>
       </c>
-      <c r="M364" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N364" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O364" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -17689,21 +13220,6 @@
       <c r="D365" t="n">
         <v>20</v>
       </c>
-      <c r="M365" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N365" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O365" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -17724,21 +13240,6 @@
       <c r="D366" t="n">
         <v>40</v>
       </c>
-      <c r="M366" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N366" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O366" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -17759,21 +13260,6 @@
       <c r="D367" t="n">
         <v>40</v>
       </c>
-      <c r="M367" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N367" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O367" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -17794,21 +13280,6 @@
       <c r="D368" t="n">
         <v>20</v>
       </c>
-      <c r="M368" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N368" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O368" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -17829,21 +13300,6 @@
       <c r="D369" t="n">
         <v>40</v>
       </c>
-      <c r="M369" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N369" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O369" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -17861,21 +13317,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M370" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N370" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O370" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -17896,21 +13337,6 @@
       <c r="D371" t="n">
         <v>10</v>
       </c>
-      <c r="M371" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N371" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O371" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -17941,21 +13367,6 @@
           <t>HB</t>
         </is>
       </c>
-      <c r="M372" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N372" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O372" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -17986,21 +13397,6 @@
           <t>XB</t>
         </is>
       </c>
-      <c r="M373" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N373" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O373" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -18021,21 +13417,6 @@
       <c r="D374" t="n">
         <v>10</v>
       </c>
-      <c r="M374" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N374" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O374" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -18056,21 +13437,6 @@
       <c r="D375" t="n">
         <v>40</v>
       </c>
-      <c r="M375" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N375" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O375" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -18091,21 +13457,6 @@
       <c r="D376" t="n">
         <v>10</v>
       </c>
-      <c r="M376" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N376" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O376" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -18126,21 +13477,6 @@
       <c r="D377" t="n">
         <v>90</v>
       </c>
-      <c r="M377" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N377" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O377" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -18161,21 +13497,6 @@
       <c r="D378" t="n">
         <v>40</v>
       </c>
-      <c r="M378" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N378" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O378" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -18196,21 +13517,6 @@
       <c r="D379" t="n">
         <v>20</v>
       </c>
-      <c r="M379" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N379" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O379" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -18231,21 +13537,6 @@
       <c r="D380" t="n">
         <v>20</v>
       </c>
-      <c r="M380" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N380" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O380" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -18263,21 +13554,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M381" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N381" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O381" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -18298,21 +13574,6 @@
       <c r="D382" t="n">
         <v>10</v>
       </c>
-      <c r="M382" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N382" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O382" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -18333,21 +13594,6 @@
       <c r="D383" t="n">
         <v>40</v>
       </c>
-      <c r="M383" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N383" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O383" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -18368,21 +13614,6 @@
       <c r="D384" t="n">
         <v>20</v>
       </c>
-      <c r="M384" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N384" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O384" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -18403,21 +13634,6 @@
       <c r="D385" t="n">
         <v>20</v>
       </c>
-      <c r="M385" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N385" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O385" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -18438,21 +13654,6 @@
       <c r="D386" t="n">
         <v>40</v>
       </c>
-      <c r="M386" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N386" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O386" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -18473,21 +13674,6 @@
       <c r="D387" t="n">
         <v>20</v>
       </c>
-      <c r="M387" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N387" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O387" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -18505,21 +13691,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M388" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N388" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O388" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -18540,21 +13711,6 @@
       <c r="D389" t="n">
         <v>10</v>
       </c>
-      <c r="M389" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N389" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O389" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -18575,21 +13731,6 @@
       <c r="D390" t="n">
         <v>40</v>
       </c>
-      <c r="M390" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N390" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O390" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -18610,21 +13751,6 @@
       <c r="D391" t="n">
         <v>20</v>
       </c>
-      <c r="M391" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N391" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O391" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -18645,21 +13771,6 @@
       <c r="D392" t="n">
         <v>20</v>
       </c>
-      <c r="M392" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N392" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O392" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -18680,21 +13791,6 @@
       <c r="D393" t="n">
         <v>90</v>
       </c>
-      <c r="M393" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N393" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O393" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -18715,21 +13811,6 @@
       <c r="D394" t="n">
         <v>40</v>
       </c>
-      <c r="M394" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N394" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O394" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -18750,21 +13831,6 @@
       <c r="D395" t="n">
         <v>10</v>
       </c>
-      <c r="M395" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N395" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O395" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -18785,21 +13851,6 @@
       <c r="D396" t="n">
         <v>10</v>
       </c>
-      <c r="M396" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N396" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O396" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -18830,21 +13881,6 @@
           <t>行标</t>
         </is>
       </c>
-      <c r="M397" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N397" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O397" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -18865,21 +13901,6 @@
       <c r="D398" t="n">
         <v>180</v>
       </c>
-      <c r="M398" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N398" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O398" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -18900,21 +13921,6 @@
       <c r="D399" t="n">
         <v>40</v>
       </c>
-      <c r="M399" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N399" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O399" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -18935,21 +13941,6 @@
       <c r="D400" t="n">
         <v>20</v>
       </c>
-      <c r="M400" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N400" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O400" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -18970,21 +13961,6 @@
       <c r="D401" t="n">
         <v>40</v>
       </c>
-      <c r="M401" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N401" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O401" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -19005,21 +13981,6 @@
       <c r="D402" t="n">
         <v>90</v>
       </c>
-      <c r="M402" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N402" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O402" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -19040,21 +14001,6 @@
       <c r="D403" t="n">
         <v>40</v>
       </c>
-      <c r="M403" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N403" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O403" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -19075,21 +14021,6 @@
       <c r="D404" t="n">
         <v>20</v>
       </c>
-      <c r="M404" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N404" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O404" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -19107,21 +14038,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M405" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N405" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O405" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -19142,21 +14058,6 @@
       <c r="D406" t="n">
         <v>10</v>
       </c>
-      <c r="M406" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N406" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O406" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -19174,21 +14075,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M407" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N407" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O407" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -19209,21 +14095,6 @@
       <c r="D408" t="n">
         <v>40</v>
       </c>
-      <c r="M408" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N408" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O408" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -19244,21 +14115,6 @@
       <c r="D409" t="n">
         <v>20</v>
       </c>
-      <c r="M409" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N409" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O409" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -19279,21 +14135,6 @@
       <c r="D410" t="n">
         <v>10</v>
       </c>
-      <c r="M410" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N410" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O410" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -19314,21 +14155,6 @@
       <c r="D411" t="n">
         <v>40</v>
       </c>
-      <c r="M411" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N411" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O411" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -19349,21 +14175,6 @@
       <c r="D412" t="n">
         <v>180</v>
       </c>
-      <c r="M412" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N412" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O412" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -19381,21 +14192,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M413" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N413" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O413" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -19413,21 +14209,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M414" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N414" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O414" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -19445,21 +14226,6 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="M415" t="inlineStr">
-        <is>
-          <t>删除表要求</t>
-        </is>
-      </c>
-      <c r="N415" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O415" t="inlineStr">
-        <is>
-          <t>无修订</t>
-        </is>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -19503,16 +14269,6 @@
       <c r="L416" t="n">
         <v>60</v>
       </c>
-      <c r="N416" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O416" t="inlineStr">
-        <is>
-          <t>增加表</t>
-        </is>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -19556,16 +14312,6 @@
       <c r="L417" t="n">
         <v>60</v>
       </c>
-      <c r="N417" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O417" t="inlineStr">
-        <is>
-          <t>增加表</t>
-        </is>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -19609,16 +14355,6 @@
       <c r="L418" t="n">
         <v>60</v>
       </c>
-      <c r="N418" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O418" t="inlineStr">
-        <is>
-          <t>增加表</t>
-        </is>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -19662,16 +14398,6 @@
       <c r="L419" t="n">
         <v>60</v>
       </c>
-      <c r="N419" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O419" t="inlineStr">
-        <is>
-          <t>增加表</t>
-        </is>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -19712,16 +14438,6 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="N420" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O420" t="inlineStr">
-        <is>
-          <t>增加表</t>
-        </is>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -19765,16 +14481,6 @@
       <c r="L421" t="n">
         <v>60</v>
       </c>
-      <c r="N421" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O421" t="inlineStr">
-        <is>
-          <t>增加表</t>
-        </is>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -19818,16 +14524,6 @@
       <c r="L422" t="n">
         <v>100</v>
       </c>
-      <c r="N422" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O422" t="inlineStr">
-        <is>
-          <t>增加表</t>
-        </is>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -19865,16 +14561,6 @@
           <t>M</t>
         </is>
       </c>
-      <c r="N423" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O423" t="inlineStr">
-        <is>
-          <t>增加表</t>
-        </is>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -19912,16 +14598,6 @@
           <t>M</t>
         </is>
       </c>
-      <c r="N424" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O424" t="inlineStr">
-        <is>
-          <t>增加表</t>
-        </is>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -19957,16 +14633,6 @@
       <c r="K425" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="N425" t="inlineStr">
-        <is>
-          <t>缺</t>
-        </is>
-      </c>
-      <c r="O425" t="inlineStr">
-        <is>
-          <t>增加表</t>
         </is>
       </c>
     </row>

--- a/file/confirm/人事_1.1_重要业务结果/人事_1.1_对外数据要求检查.xlsx
+++ b/file/confirm/人事_1.1_重要业务结果/人事_1.1_对外数据要求检查.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L425"/>
+  <dimension ref="A1:P425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,6 +433,10 @@
     <col width="18" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="28" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="13" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -496,6 +500,26 @@
           <t>长度/值域</t>
         </is>
       </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>业务线确认</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>标准确认</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>标准修订状态</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>表关联/取值</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
